--- a/Approximationen/Speicher Kosten-Lukas-PC.xlsx
+++ b/Approximationen/Speicher Kosten-Lukas-PC.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_EDCDC342150AB3CF925A17889B2514803A672CEE" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{6529465F-A734-4067-B6B7-83AC58240DB4}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="11_EDCDC342150AB3CF925A17889B2514803A672CEE" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6529465F-A734-4067-B6B7-83AC58240DB4}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,11 +14,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId4"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1733,7 +1734,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303297" cy="6010603"/>
+    <xdr:ext cx="9305925" cy="6010275"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Diagramm 1">

--- a/Approximationen/Speicher Kosten-Lukas-PC.xlsx
+++ b/Approximationen/Speicher Kosten-Lukas-PC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_EDCDC342150AB3CF925A17889B2514803A672CEE" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6529465F-A734-4067-B6B7-83AC58240DB4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="6_{E4898710-30BB-4C00-8D0F-71ABAA2C5C87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C073A6FB-1554-4E22-B375-F8CDB99674A8}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -206,7 +207,13 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.40429113709813902"/>
+                  <c:y val="-7.4788258440753541E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.0000000000E+00" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -508,7 +515,13 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1859433640395768E-2"/>
+                  <c:y val="-8.900624347471621E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.0000000000E+00" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -594,7 +607,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+              <c:numFmt formatCode="0.0000000000E+00" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -1712,7 +1725,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2119,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:O21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
